--- a/Phase 2/Comparison with VTO/Detailed analysis/WEB_scenario_3/web_all_vto_common_WEB_JEFF_shrtlist_200308_rel_over5.xlsx
+++ b/Phase 2/Comparison with VTO/Detailed analysis/WEB_scenario_3/web_all_vto_common_WEB_JEFF_shrtlist_200308_rel_over5.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\GitHub\Appendices\Phase 2\Comparison with VTO\Detailed analysis\WEB_scenario_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB25DBF4-BC18-4795-8F05-CC4936F05C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739D2703-F00A-4788-9060-7409DF1FA818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web_all_vto_common_WEB_JEFF_shr" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="478">
   <si>
     <t>TAXRANK_target</t>
   </si>
@@ -1810,7 +1810,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2320,7 +2320,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2334,6 +2334,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2725,14 +2726,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B286" sqref="B202:B286"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273:XFD273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2764,61 +2769,37 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="G2">
-        <v>13.88</v>
+        <v>11.37</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="G3">
-        <v>13.98</v>
+        <v>11.35</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2826,10 +2807,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2841,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>13.97</v>
+        <v>13.93</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2851,32 +2832,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="G5">
-        <v>13.99</v>
+        <v>13.36</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2884,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2899,7 +2868,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>13.93</v>
+        <v>11.87</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2913,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2928,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>9.23</v>
+        <v>13.16</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2942,10 +2911,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2957,7 +2926,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>11.72</v>
+        <v>13.11</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2967,32 +2936,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="G9">
-        <v>12.75</v>
+        <v>10.95</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3000,10 +2957,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3015,7 +2972,7 @@
         <v>14</v>
       </c>
       <c r="G10">
-        <v>13.23</v>
+        <v>13.85</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -3029,10 +2986,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3044,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>11.93</v>
+        <v>9.8149999999999995</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -3058,10 +3015,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -3073,7 +3030,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>8.5299999999999994</v>
+        <v>10.09</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -3087,10 +3044,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -3102,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>10.08</v>
+        <v>12.32</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -3116,10 +3073,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -3131,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>13.97</v>
+        <v>13.2</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -3145,10 +3102,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -3160,7 +3117,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>13.99</v>
+        <v>12.4</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -3174,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -3189,7 +3146,7 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>10.09</v>
+        <v>13.96</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -3203,10 +3160,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -3218,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="G17">
-        <v>12.32</v>
+        <v>13.25</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -3232,10 +3189,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -3247,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="G18">
-        <v>9.8149999999999995</v>
+        <v>13.47</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -3261,10 +3218,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -3276,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="G19">
-        <v>13.2</v>
+        <v>11.93</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -3290,10 +3247,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -3305,7 +3262,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>12.4</v>
+        <v>9.23</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -3319,10 +3276,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -3334,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="G21">
-        <v>13.67</v>
+        <v>10.08</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -3348,10 +3305,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -3363,7 +3320,7 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>13.23</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -3377,10 +3334,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -3392,7 +3349,7 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <v>12.62</v>
+        <v>11.72</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -3406,10 +3363,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -3421,7 +3378,7 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>12.65</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -3435,10 +3392,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -3450,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="G25">
-        <v>13.98</v>
+        <v>12.75</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -3464,10 +3421,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -3479,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="G26">
-        <v>13.92</v>
+        <v>13.99</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -3489,32 +3446,20 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="G27">
-        <v>11.96</v>
+        <v>13.73</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,10 +3467,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -3537,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="G28">
-        <v>13.77</v>
+        <v>13.93</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3547,32 +3492,20 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="G29">
-        <v>13.25</v>
+        <v>13.94</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3580,10 +3513,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3595,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="G30">
-        <v>13.47</v>
+        <v>13.66</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -3609,10 +3542,10 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -3624,7 +3557,7 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>13.99</v>
+        <v>13.88</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -3638,10 +3571,10 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -3653,7 +3586,7 @@
         <v>14</v>
       </c>
       <c r="G32">
-        <v>13.99</v>
+        <v>13.9</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -3667,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -3682,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="G33">
-        <v>13.99</v>
+        <v>13.91</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -3692,32 +3625,20 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="G34">
-        <v>13.99</v>
+        <v>12.79</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3725,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3740,7 +3661,7 @@
         <v>14</v>
       </c>
       <c r="G35">
-        <v>12.98</v>
+        <v>13.99</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -3750,32 +3671,20 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="G36">
-        <v>12.68</v>
+        <v>13.99</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3783,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -3798,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="G37">
-        <v>13.91</v>
+        <v>13.52</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -3812,10 +3721,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3827,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="G38">
-        <v>13.94</v>
+        <v>12.63</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -3841,10 +3750,10 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3856,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="G39">
-        <v>13.93</v>
+        <v>11.34</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -3870,10 +3779,10 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -3885,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="G40">
-        <v>13.61</v>
+        <v>12.68</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -3895,32 +3804,20 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G41">
-        <v>12.85</v>
+        <v>13.05</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3928,10 +3825,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3943,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="G42">
-        <v>13.8</v>
+        <v>11.57</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -3957,10 +3854,10 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -3972,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="G43">
-        <v>13.92</v>
+        <v>11.48</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -3982,90 +3879,54 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="G44">
-        <v>10.455</v>
+        <v>13.88</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G45">
-        <v>13.33</v>
+        <v>11.97</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="G46">
-        <v>13.61</v>
+        <v>13.5</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,10 +3934,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -4088,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="G47">
-        <v>12.9</v>
+        <v>13.33</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -4098,61 +3959,37 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G48">
-        <v>13.67</v>
+        <v>12.41</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="G49">
-        <v>11.34</v>
+        <v>12.705</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4160,10 +3997,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -4175,7 +4012,7 @@
         <v>14</v>
       </c>
       <c r="G50">
-        <v>12.63</v>
+        <v>13.98</v>
       </c>
       <c r="H50" t="s">
         <v>15</v>
@@ -4185,32 +4022,20 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="G51">
-        <v>13.52</v>
+        <v>13.99</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4218,10 +4043,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -4233,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="G52">
-        <v>13.73</v>
+        <v>13.97</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -4247,10 +4072,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -4262,7 +4087,7 @@
         <v>14</v>
       </c>
       <c r="G53">
-        <v>13.08</v>
+        <v>13.21</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -4276,10 +4101,10 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -4291,7 +4116,7 @@
         <v>14</v>
       </c>
       <c r="G54">
-        <v>11.83</v>
+        <v>13.5</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -4305,10 +4130,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -4320,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="G55">
-        <v>11.83</v>
+        <v>12.24</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -4334,10 +4159,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -4349,7 +4174,7 @@
         <v>14</v>
       </c>
       <c r="G56">
-        <v>13.66</v>
+        <v>10.67</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -4359,32 +4184,20 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="G57">
-        <v>13.08</v>
+        <v>10.08</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4392,10 +4205,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -4407,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="G58">
-        <v>13.03</v>
+        <v>11.99</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -4421,10 +4234,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -4436,7 +4249,7 @@
         <v>14</v>
       </c>
       <c r="G59">
-        <v>12.41</v>
+        <v>10.72</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -4450,10 +4263,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -4465,7 +4278,7 @@
         <v>14</v>
       </c>
       <c r="G60">
-        <v>13</v>
+        <v>13.08</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -4479,10 +4292,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -4494,7 +4307,7 @@
         <v>14</v>
       </c>
       <c r="G61">
-        <v>13.15</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -4508,10 +4321,10 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -4523,7 +4336,7 @@
         <v>14</v>
       </c>
       <c r="G62">
-        <v>13.96</v>
+        <v>8.35</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -4537,10 +4350,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -4552,7 +4365,7 @@
         <v>14</v>
       </c>
       <c r="G63">
-        <v>13.89</v>
+        <v>11.83</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -4562,32 +4375,20 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G64">
-        <v>11.8</v>
+        <v>11.99</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4595,10 +4396,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -4610,7 +4411,7 @@
         <v>14</v>
       </c>
       <c r="G65">
-        <v>12.25</v>
+        <v>10.79</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4624,10 +4425,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -4639,7 +4440,7 @@
         <v>14</v>
       </c>
       <c r="G66">
-        <v>12.79</v>
+        <v>12.5</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -4653,10 +4454,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -4668,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="G67">
-        <v>13.94</v>
+        <v>12.65</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -4682,10 +4483,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -4697,7 +4498,7 @@
         <v>14</v>
       </c>
       <c r="G68">
-        <v>13.97</v>
+        <v>9.23</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -4711,10 +4512,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -4726,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="G69">
-        <v>13.99</v>
+        <v>11.2</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -4740,10 +4541,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -4755,7 +4556,7 @@
         <v>14</v>
       </c>
       <c r="G70">
-        <v>13.9</v>
+        <v>9.98</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -4769,10 +4570,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -4784,7 +4585,7 @@
         <v>14</v>
       </c>
       <c r="G71">
-        <v>13.75</v>
+        <v>13.97</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4798,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -4813,7 +4614,7 @@
         <v>14</v>
       </c>
       <c r="G72">
-        <v>13.85</v>
+        <v>13.99</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -4827,10 +4628,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -4842,7 +4643,7 @@
         <v>14</v>
       </c>
       <c r="G73">
-        <v>13.41</v>
+        <v>13.15</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
@@ -4856,144 +4657,96 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>322</v>
+      </c>
+      <c r="G75">
+        <v>12.61</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>322</v>
+      </c>
+      <c r="G76">
+        <v>12.62</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>120</v>
       </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74">
-        <v>8.65</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75">
-        <v>13.55</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76">
-        <v>12.71</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" t="s">
-        <v>124</v>
-      </c>
       <c r="C77" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="G77">
-        <v>13.94</v>
+        <v>12.62</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="G78">
-        <v>13.21</v>
+        <v>12.6</v>
       </c>
       <c r="H78" t="s">
         <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5001,10 +4754,10 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -5016,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="G79">
-        <v>13.5</v>
+        <v>13.67</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
@@ -5026,90 +4779,54 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="G80">
-        <v>13.88</v>
+        <v>12.13</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="G81">
-        <v>13.26</v>
+        <v>12.38</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="G82">
-        <v>13.62</v>
+        <v>11.74</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5117,10 +4834,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -5132,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="G83">
-        <v>12.68</v>
+        <v>13.99</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -5146,10 +4863,10 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -5161,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="G84">
-        <v>11.48</v>
+        <v>13.67</v>
       </c>
       <c r="H84" t="s">
         <v>15</v>
@@ -5175,10 +4892,10 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -5190,7 +4907,7 @@
         <v>14</v>
       </c>
       <c r="G85">
-        <v>11.57</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
@@ -5200,119 +4917,71 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="G86">
-        <v>13.99</v>
+        <v>11.99</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="G87">
-        <v>12.09</v>
+        <v>13.88</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="G88">
-        <v>13.84</v>
+        <v>13.86</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="G89">
-        <v>13.62</v>
+        <v>13.69</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5320,10 +4989,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -5335,7 +5004,7 @@
         <v>14</v>
       </c>
       <c r="G90">
-        <v>13.99</v>
+        <v>12.62</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -5349,10 +5018,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -5364,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="G91">
-        <v>13.67</v>
+        <v>12.65</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -5374,119 +5043,71 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="G92">
-        <v>12.02</v>
+        <v>13.86</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="G93">
-        <v>12.22</v>
+        <v>13.31</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="G94">
-        <v>11.8</v>
+        <v>10.105</v>
       </c>
       <c r="H94" t="s">
         <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
-      </c>
-      <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="G95">
-        <v>12.92</v>
+        <v>8.76</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5494,10 +5115,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -5509,7 +5130,7 @@
         <v>14</v>
       </c>
       <c r="G96">
-        <v>13.32</v>
+        <v>11.755000000000001</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
@@ -5523,10 +5144,10 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -5538,7 +5159,7 @@
         <v>14</v>
       </c>
       <c r="G97">
-        <v>10.23</v>
+        <v>10.43</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -5552,10 +5173,10 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -5567,7 +5188,7 @@
         <v>14</v>
       </c>
       <c r="G98">
-        <v>12.97</v>
+        <v>12.22</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
@@ -5581,10 +5202,10 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -5596,7 +5217,7 @@
         <v>14</v>
       </c>
       <c r="G99">
-        <v>13.8</v>
+        <v>12.02</v>
       </c>
       <c r="H99" t="s">
         <v>15</v>
@@ -5610,10 +5231,10 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -5625,7 +5246,7 @@
         <v>14</v>
       </c>
       <c r="G100">
-        <v>12.41</v>
+        <v>11.8</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -5635,90 +5256,54 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
       <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
+      <c r="G101">
+        <v>13.99</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" t="s">
+        <v>340</v>
+      </c>
+      <c r="G102">
+        <v>13.8</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
         <v>161</v>
       </c>
-      <c r="C101" t="s">
-        <v>160</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101">
-        <v>10.73</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" t="s">
-        <v>163</v>
-      </c>
-      <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102">
-        <v>13.96</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" t="s">
-        <v>165</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
       <c r="G103">
-        <v>13.99</v>
+        <v>10.71</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5726,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -5741,7 +5326,7 @@
         <v>14</v>
       </c>
       <c r="G104">
-        <v>13.75</v>
+        <v>12.13</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
@@ -5755,10 +5340,10 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -5770,7 +5355,7 @@
         <v>14</v>
       </c>
       <c r="G105">
-        <v>12.57</v>
+        <v>13.8</v>
       </c>
       <c r="H105" t="s">
         <v>15</v>
@@ -5784,10 +5369,10 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -5799,7 +5384,7 @@
         <v>14</v>
       </c>
       <c r="G106">
-        <v>13.69</v>
+        <v>13.98</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
@@ -5813,10 +5398,10 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -5828,7 +5413,7 @@
         <v>14</v>
       </c>
       <c r="G107">
-        <v>11.2</v>
+        <v>11.34</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
@@ -5842,10 +5427,10 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -5857,7 +5442,7 @@
         <v>14</v>
       </c>
       <c r="G108">
-        <v>13.57</v>
+        <v>11.76</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
@@ -5871,10 +5456,10 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -5886,7 +5471,7 @@
         <v>14</v>
       </c>
       <c r="G109">
-        <v>13</v>
+        <v>13.38</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -5900,10 +5485,10 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -5915,7 +5500,7 @@
         <v>14</v>
       </c>
       <c r="G110">
-        <v>11.44</v>
+        <v>13.47</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -5925,90 +5510,54 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="G111">
-        <v>13.25</v>
+        <v>13.18</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="G112">
-        <v>13.05</v>
+        <v>13.14</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="G113">
-        <v>9.94</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -6016,10 +5565,10 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -6041,61 +5590,37 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="C115" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="G115">
-        <v>13.88</v>
+        <v>9.23</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="G116">
-        <v>13.99</v>
+        <v>13.37</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6103,10 +5628,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -6118,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="G117">
-        <v>13.99</v>
+        <v>12.68</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -6128,32 +5653,20 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="G118">
-        <v>13.33</v>
+        <v>12.1</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6161,10 +5674,10 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -6176,7 +5689,7 @@
         <v>14</v>
       </c>
       <c r="G119">
-        <v>13.94</v>
+        <v>13.8</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -6186,61 +5699,37 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="G120">
-        <v>13.94</v>
+        <v>13.99</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="G121">
-        <v>13.47</v>
+        <v>13.99</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6248,10 +5737,10 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -6273,32 +5762,20 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="G123">
-        <v>13.37</v>
+        <v>13.97</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6306,10 +5783,10 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -6321,7 +5798,7 @@
         <v>14</v>
       </c>
       <c r="G124">
-        <v>13.11</v>
+        <v>13.61</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
@@ -6335,10 +5812,10 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -6350,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="G125">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
@@ -6364,10 +5841,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -6379,7 +5856,7 @@
         <v>14</v>
       </c>
       <c r="G126">
-        <v>10.79</v>
+        <v>13.88</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -6393,10 +5870,10 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -6408,7 +5885,7 @@
         <v>14</v>
       </c>
       <c r="G127">
-        <v>11.83</v>
+        <v>11.96</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -6422,10 +5899,10 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -6437,7 +5914,7 @@
         <v>14</v>
       </c>
       <c r="G128">
-        <v>11.2</v>
+        <v>13.77</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -6451,10 +5928,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -6466,7 +5943,7 @@
         <v>14</v>
       </c>
       <c r="G129">
-        <v>9.23</v>
+        <v>13.62</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -6480,10 +5957,10 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -6495,7 +5972,7 @@
         <v>14</v>
       </c>
       <c r="G130">
-        <v>9.98</v>
+        <v>12.65</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -6509,10 +5986,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -6524,7 +6001,7 @@
         <v>14</v>
       </c>
       <c r="G131">
-        <v>12.65</v>
+        <v>12.58</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -6538,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -6553,7 +6030,7 @@
         <v>14</v>
       </c>
       <c r="G132">
-        <v>13.96</v>
+        <v>9.09</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -6567,10 +6044,10 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="C133" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -6582,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="G133">
-        <v>13.83</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -6596,10 +6073,10 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -6611,7 +6088,7 @@
         <v>14</v>
       </c>
       <c r="G134">
-        <v>11.64</v>
+        <v>13.99</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -6625,10 +6102,10 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -6640,7 +6117,7 @@
         <v>14</v>
       </c>
       <c r="G135">
-        <v>13.8</v>
+        <v>11.44</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
@@ -6654,10 +6131,10 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -6669,7 +6146,7 @@
         <v>14</v>
       </c>
       <c r="G136">
-        <v>12.13</v>
+        <v>13.05</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -6683,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -6698,7 +6175,7 @@
         <v>14</v>
       </c>
       <c r="G137">
-        <v>13.47</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -6712,10 +6189,10 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -6727,7 +6204,7 @@
         <v>14</v>
       </c>
       <c r="G138">
-        <v>13.59</v>
+        <v>13.25</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -6741,10 +6218,10 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -6756,7 +6233,7 @@
         <v>14</v>
       </c>
       <c r="G139">
-        <v>13</v>
+        <v>9.94</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -6770,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -6785,7 +6262,7 @@
         <v>14</v>
       </c>
       <c r="G140">
-        <v>13.86</v>
+        <v>13.99</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
@@ -6795,32 +6272,20 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>9</v>
-      </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G141">
-        <v>13.81</v>
+        <v>10.23</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6828,10 +6293,10 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="C142" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -6843,7 +6308,7 @@
         <v>14</v>
       </c>
       <c r="G142">
-        <v>13.8</v>
+        <v>13.36</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -6857,10 +6322,10 @@
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="C143" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -6872,7 +6337,7 @@
         <v>14</v>
       </c>
       <c r="G143">
-        <v>13.91</v>
+        <v>12.98</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -6886,10 +6351,10 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -6901,7 +6366,7 @@
         <v>14</v>
       </c>
       <c r="G144">
-        <v>13.49</v>
+        <v>13.91</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -6915,10 +6380,10 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -6930,7 +6395,7 @@
         <v>14</v>
       </c>
       <c r="G145">
-        <v>13.62</v>
+        <v>13.96</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -6944,10 +6409,10 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -6959,7 +6424,7 @@
         <v>14</v>
       </c>
       <c r="G146">
-        <v>12.96</v>
+        <v>13.8</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
@@ -6969,32 +6434,20 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
-      </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G147">
-        <v>13.99</v>
+        <v>9.3049999999999997</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -7002,10 +6455,10 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -7031,10 +6484,10 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="C149" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -7046,7 +6499,7 @@
         <v>14</v>
       </c>
       <c r="G149">
-        <v>13.96</v>
+        <v>13.75</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -7060,10 +6513,10 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -7075,7 +6528,7 @@
         <v>14</v>
       </c>
       <c r="G150">
-        <v>13.96</v>
+        <v>13.67</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
@@ -7089,10 +6542,10 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -7104,7 +6557,7 @@
         <v>14</v>
       </c>
       <c r="G151">
-        <v>11.755000000000001</v>
+        <v>12.09</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -7118,10 +6571,10 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -7133,7 +6586,7 @@
         <v>14</v>
       </c>
       <c r="G152">
-        <v>10.43</v>
+        <v>13.84</v>
       </c>
       <c r="H152" t="s">
         <v>15</v>
@@ -7147,10 +6600,10 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C153" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -7162,7 +6615,7 @@
         <v>14</v>
       </c>
       <c r="G153">
-        <v>13.67</v>
+        <v>13.99</v>
       </c>
       <c r="H153" t="s">
         <v>15</v>
@@ -7173,16 +6626,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="D154" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -7191,7 +6644,7 @@
         <v>14</v>
       </c>
       <c r="G154">
-        <v>12.07</v>
+        <v>13.99</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -7201,32 +6654,20 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>9</v>
-      </c>
       <c r="B155" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>246</v>
-      </c>
-      <c r="D155" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="G155">
-        <v>12.07</v>
+        <v>10.98</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7234,10 +6675,10 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -7249,7 +6690,7 @@
         <v>14</v>
       </c>
       <c r="G156">
-        <v>13.55</v>
+        <v>13.96</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -7263,10 +6704,10 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -7278,7 +6719,7 @@
         <v>14</v>
       </c>
       <c r="G157">
-        <v>12.45</v>
+        <v>13.86</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -7289,16 +6730,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -7307,7 +6748,7 @@
         <v>14</v>
       </c>
       <c r="G158">
-        <v>12.07</v>
+        <v>13.97</v>
       </c>
       <c r="H158" t="s">
         <v>15</v>
@@ -7321,10 +6762,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -7336,7 +6777,7 @@
         <v>14</v>
       </c>
       <c r="G159">
-        <v>13.08</v>
+        <v>13.69</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -7346,32 +6787,20 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>9</v>
-      </c>
       <c r="B160" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G160">
-        <v>10.67</v>
+        <v>12.46</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7379,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -7394,7 +6823,7 @@
         <v>14</v>
       </c>
       <c r="G161">
-        <v>12.24</v>
+        <v>11.2</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -7408,10 +6837,10 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -7423,7 +6852,7 @@
         <v>14</v>
       </c>
       <c r="G162">
-        <v>11.99</v>
+        <v>13.94</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -7433,32 +6862,20 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>9</v>
-      </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
-      </c>
-      <c r="D163" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="G163">
-        <v>10.72</v>
+        <v>12.58</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7466,10 +6883,10 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -7481,7 +6898,7 @@
         <v>14</v>
       </c>
       <c r="G164">
-        <v>8.35</v>
+        <v>12.57</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -7495,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -7510,7 +6927,7 @@
         <v>14</v>
       </c>
       <c r="G165">
-        <v>9.5399999999999991</v>
+        <v>13.75</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -7521,16 +6938,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="D166" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="E166" t="s">
         <v>13</v>
@@ -7539,7 +6956,7 @@
         <v>14</v>
       </c>
       <c r="G166">
-        <v>12.27</v>
+        <v>13.26</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -7553,10 +6970,10 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="C167" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -7568,7 +6985,7 @@
         <v>14</v>
       </c>
       <c r="G167">
-        <v>13.25</v>
+        <v>11.64</v>
       </c>
       <c r="H167" t="s">
         <v>15</v>
@@ -7582,10 +6999,10 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -7597,7 +7014,7 @@
         <v>14</v>
       </c>
       <c r="G168">
-        <v>13.29</v>
+        <v>13.99</v>
       </c>
       <c r="H168" t="s">
         <v>15</v>
@@ -7611,10 +7028,10 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="C169" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -7626,7 +7043,7 @@
         <v>14</v>
       </c>
       <c r="G169">
-        <v>12.24</v>
+        <v>13.37</v>
       </c>
       <c r="H169" t="s">
         <v>15</v>
@@ -7636,32 +7053,20 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>9</v>
-      </c>
       <c r="B170" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="C170" t="s">
-        <v>260</v>
-      </c>
-      <c r="D170" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="G170">
-        <v>9.4</v>
+        <v>11.98</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7669,10 +7074,10 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C171" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -7684,7 +7089,7 @@
         <v>14</v>
       </c>
       <c r="G171">
-        <v>13.47</v>
+        <v>13.11</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -7694,119 +7099,71 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>9</v>
-      </c>
       <c r="B172" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="C172" t="s">
-        <v>260</v>
-      </c>
-      <c r="D172" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="G172">
-        <v>10.76</v>
+        <v>13.88</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
       </c>
       <c r="I172" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>9</v>
-      </c>
       <c r="B173" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
-      </c>
-      <c r="D173" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="G173">
-        <v>12.88</v>
+        <v>13.27</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>9</v>
-      </c>
       <c r="B174" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="C174" t="s">
-        <v>266</v>
-      </c>
-      <c r="D174" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="s">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="G174">
-        <v>8.02</v>
+        <v>13.27</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>9</v>
-      </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>266</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="G175">
-        <v>11.71</v>
+        <v>13.99</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7814,10 +7171,10 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -7829,7 +7186,7 @@
         <v>14</v>
       </c>
       <c r="G176">
-        <v>10.35</v>
+        <v>13.62</v>
       </c>
       <c r="H176" t="s">
         <v>15</v>
@@ -7843,10 +7200,10 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="C177" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -7858,7 +7215,7 @@
         <v>14</v>
       </c>
       <c r="G177">
-        <v>11.99</v>
+        <v>13.94</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -7872,10 +7229,10 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="C178" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -7887,7 +7244,7 @@
         <v>14</v>
       </c>
       <c r="G178">
-        <v>10.23</v>
+        <v>13.94</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -7901,10 +7258,10 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -7916,7 +7273,7 @@
         <v>14</v>
       </c>
       <c r="G179">
-        <v>13.36</v>
+        <v>12.79</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -7930,10 +7287,10 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -7945,7 +7302,7 @@
         <v>14</v>
       </c>
       <c r="G180">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -7959,10 +7316,10 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="C181" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -7974,7 +7331,7 @@
         <v>14</v>
       </c>
       <c r="G181">
-        <v>13.24</v>
+        <v>12.25</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -7984,90 +7341,54 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>9</v>
-      </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="C182" t="s">
-        <v>274</v>
-      </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="G182">
-        <v>10.52</v>
+        <v>13.93</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>9</v>
-      </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C183" t="s">
-        <v>276</v>
-      </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="G183">
-        <v>13.99</v>
+        <v>9.67</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>9</v>
-      </c>
       <c r="B184" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
       <c r="C184" t="s">
-        <v>278</v>
-      </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="G184">
-        <v>13.99</v>
+        <v>9.49</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -8075,10 +7396,10 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -8090,7 +7411,7 @@
         <v>14</v>
       </c>
       <c r="G185">
-        <v>13.3</v>
+        <v>8.02</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -8104,10 +7425,10 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C186" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -8119,7 +7440,7 @@
         <v>14</v>
       </c>
       <c r="G186">
-        <v>13.31</v>
+        <v>10.23</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -8133,10 +7454,10 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
@@ -8148,7 +7469,7 @@
         <v>14</v>
       </c>
       <c r="G187">
-        <v>11.76</v>
+        <v>10.35</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -8162,10 +7483,10 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -8177,7 +7498,7 @@
         <v>14</v>
       </c>
       <c r="G188">
-        <v>11.34</v>
+        <v>11.99</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -8191,10 +7512,10 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C189" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
@@ -8206,7 +7527,7 @@
         <v>14</v>
       </c>
       <c r="G189">
-        <v>13.38</v>
+        <v>13.36</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -8220,10 +7541,10 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
@@ -8235,7 +7556,7 @@
         <v>14</v>
       </c>
       <c r="G190">
-        <v>13.16</v>
+        <v>11.9</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -8245,32 +7566,20 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>9</v>
-      </c>
       <c r="B191" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="C191" t="s">
-        <v>286</v>
-      </c>
-      <c r="D191" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="G191">
-        <v>13.11</v>
+        <v>7.16</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8278,10 +7587,10 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C192" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
@@ -8293,7 +7602,7 @@
         <v>14</v>
       </c>
       <c r="G192">
-        <v>11.87</v>
+        <v>11.71</v>
       </c>
       <c r="H192" t="s">
         <v>15</v>
@@ -8303,90 +7612,54 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>9</v>
-      </c>
       <c r="B193" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C193" t="s">
-        <v>290</v>
-      </c>
-      <c r="D193" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="G193">
-        <v>13.88</v>
+        <v>7.85</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>9</v>
-      </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="C194" t="s">
-        <v>292</v>
-      </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="G194">
-        <v>13.96</v>
+        <v>13.35</v>
       </c>
       <c r="H194" t="s">
         <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>9</v>
-      </c>
       <c r="B195" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="C195" t="s">
-        <v>294</v>
-      </c>
-      <c r="D195" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="G195">
-        <v>10.199999999999999</v>
+        <v>13.22</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8394,10 +7667,10 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C196" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
@@ -8409,7 +7682,7 @@
         <v>14</v>
       </c>
       <c r="G196">
-        <v>9.09</v>
+        <v>13.31</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -8423,10 +7696,10 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
@@ -8438,7 +7711,7 @@
         <v>14</v>
       </c>
       <c r="G197">
-        <v>12.65</v>
+        <v>13.3</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
@@ -8448,32 +7721,20 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>9</v>
-      </c>
       <c r="B198" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="C198" t="s">
-        <v>294</v>
-      </c>
-      <c r="D198" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="G198">
-        <v>12.58</v>
+        <v>13.99</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8481,10 +7742,10 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C199" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
@@ -8496,7 +7757,7 @@
         <v>14</v>
       </c>
       <c r="G199">
-        <v>13.36</v>
+        <v>11.96</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
@@ -8510,10 +7771,10 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C200" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
@@ -8525,7 +7786,7 @@
         <v>14</v>
       </c>
       <c r="G200">
-        <v>9.8800000000000008</v>
+        <v>12.96</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -8539,10 +7800,10 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
@@ -8554,7 +7815,7 @@
         <v>14</v>
       </c>
       <c r="G201">
-        <v>11.96</v>
+        <v>13.62</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -8565,13 +7826,13 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="G202">
-        <v>13.36</v>
+        <v>13.99</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -8581,48 +7842,72 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
       <c r="B203" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="C203" t="s">
-        <v>208</v>
+        <v>160</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
       </c>
       <c r="G203">
-        <v>10.95</v>
+        <v>12.41</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
-        <v>303</v>
+        <v>160</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
       </c>
       <c r="G204">
-        <v>13.73</v>
+        <v>10.73</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C205" t="s">
-        <v>305</v>
+        <v>160</v>
       </c>
       <c r="G205">
-        <v>13.94</v>
+        <v>8.16</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -8632,48 +7917,72 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="C206" t="s">
-        <v>307</v>
+        <v>144</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
       </c>
       <c r="G206">
-        <v>12.79</v>
+        <v>13.99</v>
       </c>
       <c r="H206" t="s">
         <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
       <c r="B207" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="C207" t="s">
-        <v>309</v>
+        <v>152</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
       </c>
       <c r="G207">
-        <v>13.99</v>
+        <v>12.92</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C208" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="G208">
-        <v>13.05</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -8682,49 +7991,73 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
       <c r="B209" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C209" t="s">
-        <v>312</v>
+        <v>292</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
       </c>
       <c r="G209">
-        <v>13.88</v>
+        <v>13.96</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="C210" t="s">
-        <v>157</v>
+        <v>104</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
       </c>
       <c r="G210">
-        <v>11.97</v>
+        <v>13.89</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
       </c>
       <c r="I210" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="C211" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="G211">
-        <v>13.5</v>
+        <v>11.78</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -8733,83 +8066,131 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
       <c r="B212" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="C212" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
       </c>
       <c r="G212">
-        <v>12.41</v>
+        <v>12.85</v>
       </c>
       <c r="H212" t="s">
         <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
       <c r="B213" t="s">
-        <v>316</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s">
-        <v>317</v>
+        <v>73</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
       </c>
       <c r="G213">
-        <v>12.705</v>
+        <v>13.61</v>
       </c>
       <c r="H213" t="s">
         <v>15</v>
       </c>
       <c r="I213" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
       <c r="B214" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C214" t="s">
-        <v>319</v>
+        <v>224</v>
+      </c>
+      <c r="D214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
       </c>
       <c r="G214">
+        <v>13.8</v>
+      </c>
+      <c r="H214" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>275</v>
+      </c>
+      <c r="C215" t="s">
+        <v>276</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215">
         <v>13.99</v>
       </c>
-      <c r="H214" t="s">
-        <v>15</v>
-      </c>
-      <c r="I214" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>320</v>
-      </c>
-      <c r="C215" t="s">
-        <v>249</v>
-      </c>
-      <c r="G215">
-        <v>10.08</v>
-      </c>
       <c r="H215" t="s">
         <v>15</v>
       </c>
       <c r="I215" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="C216" t="s">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="G216">
-        <v>11.99</v>
+        <v>12.51</v>
       </c>
       <c r="H216" t="s">
         <v>15</v>
@@ -8818,15 +8199,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C217" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="G217">
-        <v>12.61</v>
+        <v>11.88</v>
       </c>
       <c r="H217" t="s">
         <v>15</v>
@@ -8835,134 +8216,218 @@
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
       <c r="B218" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>322</v>
+        <v>222</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
+        <v>14</v>
       </c>
       <c r="G218">
-        <v>12.62</v>
+        <v>13.81</v>
       </c>
       <c r="H218" t="s">
         <v>15</v>
       </c>
       <c r="I218" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
       <c r="B219" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C219" t="s">
-        <v>322</v>
+        <v>21</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
       </c>
       <c r="G219">
-        <v>12.62</v>
+        <v>13.99</v>
       </c>
       <c r="H219" t="s">
         <v>15</v>
       </c>
       <c r="I219" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
       <c r="B220" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>322</v>
+        <v>218</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
       </c>
       <c r="G220">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="H220" t="s">
         <v>15</v>
       </c>
       <c r="I220" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
       <c r="B221" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>324</v>
+        <v>218</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
       </c>
       <c r="G221">
-        <v>12.13</v>
+        <v>13.59</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
       </c>
       <c r="I221" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
       <c r="B222" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="C222" t="s">
-        <v>324</v>
+        <v>191</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
       </c>
       <c r="G222">
-        <v>12.38</v>
+        <v>13.94</v>
       </c>
       <c r="H222" t="s">
         <v>15</v>
       </c>
       <c r="I222" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
       <c r="B223" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>173</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
       </c>
       <c r="G223">
-        <v>11.74</v>
+        <v>13</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
       </c>
       <c r="I223" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
       <c r="B224" t="s">
-        <v>327</v>
+        <v>172</v>
       </c>
       <c r="C224" t="s">
-        <v>328</v>
+        <v>173</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
       </c>
       <c r="G224">
-        <v>11.99</v>
+        <v>13.57</v>
       </c>
       <c r="H224" t="s">
         <v>15</v>
       </c>
       <c r="I224" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="G225">
-        <v>13.88</v>
+        <v>12.86</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
@@ -8971,185 +8436,305 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
       <c r="B226" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C226" t="s">
-        <v>331</v>
+        <v>246</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
       </c>
       <c r="G226">
-        <v>13.86</v>
+        <v>12.07</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
       </c>
       <c r="I226" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="C227" t="s">
-        <v>332</v>
+        <v>246</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
       </c>
       <c r="G227">
-        <v>13.69</v>
+        <v>12.45</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
       </c>
       <c r="I227" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
       <c r="B228" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
-        <v>334</v>
+        <v>246</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
       </c>
       <c r="G228">
-        <v>13.86</v>
+        <v>13.55</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
       </c>
       <c r="I228" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
       <c r="B229" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="C229" t="s">
-        <v>336</v>
+        <v>195</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
       </c>
       <c r="G229">
-        <v>13.31</v>
+        <v>13.47</v>
       </c>
       <c r="H229" t="s">
         <v>15</v>
       </c>
       <c r="I229" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
       <c r="B230" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>227</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
       </c>
       <c r="G230">
-        <v>10.105</v>
+        <v>13.49</v>
       </c>
       <c r="H230" t="s">
         <v>15</v>
       </c>
       <c r="I230" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
       <c r="B231" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="C231" t="s">
-        <v>237</v>
+        <v>90</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
       </c>
       <c r="G231">
-        <v>8.76</v>
+        <v>13.73</v>
       </c>
       <c r="H231" t="s">
         <v>15</v>
       </c>
       <c r="I231" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
       <c r="B232" t="s">
-        <v>337</v>
+        <v>123</v>
       </c>
       <c r="C232" t="s">
-        <v>338</v>
+        <v>121</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
       </c>
       <c r="G232">
-        <v>13.99</v>
+        <v>12.71</v>
       </c>
       <c r="H232" t="s">
         <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
       <c r="B233" t="s">
-        <v>339</v>
+        <v>120</v>
       </c>
       <c r="C233" t="s">
-        <v>340</v>
+        <v>121</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
       </c>
       <c r="G233">
-        <v>13.8</v>
+        <v>8.65</v>
       </c>
       <c r="H233" t="s">
         <v>15</v>
       </c>
       <c r="I233" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
       <c r="B234" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C234" t="s">
-        <v>161</v>
+        <v>121</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
       </c>
       <c r="G234">
-        <v>10.71</v>
+        <v>13.55</v>
       </c>
       <c r="H234" t="s">
         <v>15</v>
       </c>
       <c r="I234" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
       <c r="B235" t="s">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
       </c>
       <c r="G235">
-        <v>13.18</v>
+        <v>13.83</v>
       </c>
       <c r="H235" t="s">
         <v>15</v>
       </c>
       <c r="I235" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="C236" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="G236">
-        <v>13.14</v>
+        <v>11.83</v>
       </c>
       <c r="H236" t="s">
         <v>15</v>
@@ -9158,97 +8743,169 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="C237" t="s">
-        <v>343</v>
+        <v>57</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
       </c>
       <c r="G237">
-        <v>13</v>
+        <v>13.99</v>
       </c>
       <c r="H237" t="s">
         <v>15</v>
       </c>
       <c r="I237" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
       <c r="B238" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>209</v>
+        <v>11</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
       </c>
       <c r="G238">
-        <v>9.23</v>
+        <v>13.88</v>
       </c>
       <c r="H238" t="s">
         <v>15</v>
       </c>
       <c r="I238" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
       <c r="B239" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="C239" t="s">
-        <v>345</v>
+        <v>96</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
+        <v>14</v>
       </c>
       <c r="G239">
-        <v>13.37</v>
+        <v>13.03</v>
       </c>
       <c r="H239" t="s">
         <v>15</v>
       </c>
       <c r="I239" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
       <c r="B240" t="s">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="C240" t="s">
-        <v>158</v>
+        <v>96</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
       </c>
       <c r="G240">
-        <v>12.1</v>
+        <v>13.08</v>
       </c>
       <c r="H240" t="s">
         <v>15</v>
       </c>
       <c r="I240" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
       <c r="B241" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="C241" t="s">
-        <v>347</v>
+        <v>96</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
       </c>
       <c r="G241">
-        <v>13.99</v>
+        <v>12.41</v>
       </c>
       <c r="H241" t="s">
         <v>15</v>
       </c>
       <c r="I241" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
       <c r="B242" t="s">
-        <v>348</v>
+        <v>62</v>
       </c>
       <c r="C242" t="s">
-        <v>349</v>
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
       </c>
       <c r="G242">
         <v>13.99</v>
@@ -9257,35 +8914,47 @@
         <v>15</v>
       </c>
       <c r="I242" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
       <c r="B243" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="C243" t="s">
-        <v>351</v>
+        <v>78</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
       </c>
       <c r="G243">
-        <v>13.97</v>
+        <v>10.455</v>
       </c>
       <c r="H243" t="s">
         <v>15</v>
       </c>
       <c r="I243" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="C244" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="G244">
-        <v>10.23</v>
+        <v>10.68</v>
       </c>
       <c r="H244" t="s">
         <v>15</v>
@@ -9294,15 +8963,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C245" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="G245">
-        <v>9.3049999999999997</v>
+        <v>8.59</v>
       </c>
       <c r="H245" t="s">
         <v>15</v>
@@ -9311,15 +8980,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="C246" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="G246">
-        <v>10.98</v>
+        <v>7.05</v>
       </c>
       <c r="H246" t="s">
         <v>15</v>
@@ -9328,15 +8997,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="C247" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="G247">
-        <v>12.46</v>
+        <v>11.48</v>
       </c>
       <c r="H247" t="s">
         <v>15</v>
@@ -9345,15 +9014,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C248" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="G248">
-        <v>12.58</v>
+        <v>8.35</v>
       </c>
       <c r="H248" t="s">
         <v>15</v>
@@ -9362,32 +9031,44 @@
         <v>300</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
       <c r="B249" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="C249" t="s">
-        <v>199</v>
+        <v>256</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
+        <v>14</v>
       </c>
       <c r="G249">
-        <v>11.98</v>
+        <v>13.29</v>
       </c>
       <c r="H249" t="s">
         <v>15</v>
       </c>
       <c r="I249" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="C250" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="G250">
-        <v>13.88</v>
+        <v>6.59</v>
       </c>
       <c r="H250" t="s">
         <v>15</v>
@@ -9396,168 +9077,276 @@
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
       <c r="B251" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="C251" t="s">
-        <v>358</v>
+        <v>256</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>14</v>
       </c>
       <c r="G251">
-        <v>13.27</v>
+        <v>13.25</v>
       </c>
       <c r="H251" t="s">
         <v>15</v>
       </c>
       <c r="I251" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
       <c r="B252" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>242</v>
+      </c>
+      <c r="D252" t="s">
+        <v>241</v>
+      </c>
+      <c r="E252" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s">
+        <v>14</v>
       </c>
       <c r="G252">
-        <v>13.27</v>
+        <v>12.07</v>
       </c>
       <c r="H252" t="s">
         <v>15</v>
       </c>
       <c r="I252" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
       <c r="B253" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>361</v>
+        <v>242</v>
+      </c>
+      <c r="D253" t="s">
+        <v>241</v>
+      </c>
+      <c r="E253" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>14</v>
       </c>
       <c r="G253">
-        <v>13.99</v>
+        <v>12.27</v>
       </c>
       <c r="H253" t="s">
         <v>15</v>
       </c>
       <c r="I253" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>241</v>
+      </c>
       <c r="B254" t="s">
-        <v>362</v>
+        <v>242</v>
       </c>
       <c r="C254" t="s">
-        <v>363</v>
+        <v>243</v>
+      </c>
+      <c r="D254" t="s">
+        <v>244</v>
+      </c>
+      <c r="E254" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
+        <v>14</v>
       </c>
       <c r="G254">
-        <v>13.93</v>
+        <v>12.07</v>
       </c>
       <c r="H254" t="s">
         <v>15</v>
       </c>
       <c r="I254" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
       <c r="B255" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>364</v>
+        <v>260</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
       </c>
       <c r="G255">
-        <v>9.67</v>
+        <v>13.47</v>
       </c>
       <c r="H255" t="s">
         <v>15</v>
       </c>
       <c r="I255" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
       <c r="B256" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="C256" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="D256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
       </c>
       <c r="G256">
-        <v>9.49</v>
+        <v>9.4</v>
       </c>
       <c r="H256" t="s">
         <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
       <c r="B257" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="C257" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>14</v>
       </c>
       <c r="G257">
-        <v>7.16</v>
+        <v>12.88</v>
       </c>
       <c r="H257" t="s">
         <v>15</v>
       </c>
       <c r="I257" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C258" t="s">
-        <v>367</v>
+        <v>260</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>14</v>
       </c>
       <c r="G258">
-        <v>7.85</v>
+        <v>10.76</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
       </c>
       <c r="I258" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>9</v>
+      </c>
       <c r="B259" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>369</v>
+        <v>260</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>14</v>
       </c>
       <c r="G259">
-        <v>13.35</v>
+        <v>12.24</v>
       </c>
       <c r="H259" t="s">
         <v>15</v>
       </c>
       <c r="I259" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C260" t="s">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="G260">
-        <v>13.22</v>
+        <v>7.46</v>
       </c>
       <c r="H260" t="s">
         <v>15</v>
@@ -9566,15 +9355,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C261" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="G261">
-        <v>13.99</v>
+        <v>7.71</v>
       </c>
       <c r="H261" t="s">
         <v>15</v>
@@ -9583,100 +9372,160 @@
         <v>300</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>9</v>
+      </c>
       <c r="B262" t="s">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="C262" t="s">
-        <v>374</v>
+        <v>154</v>
+      </c>
+      <c r="D262" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
       </c>
       <c r="G262">
+        <v>10.23</v>
+      </c>
+      <c r="H262" t="s">
+        <v>15</v>
+      </c>
+      <c r="I262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" t="s">
+        <v>153</v>
+      </c>
+      <c r="C263" t="s">
+        <v>154</v>
+      </c>
+      <c r="D263" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263">
+        <v>13.32</v>
+      </c>
+      <c r="H263" t="s">
+        <v>15</v>
+      </c>
+      <c r="I263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" t="s">
+        <v>156</v>
+      </c>
+      <c r="C264" t="s">
+        <v>154</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264">
+        <v>12.97</v>
+      </c>
+      <c r="H264" t="s">
+        <v>15</v>
+      </c>
+      <c r="I264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" t="s">
+        <v>68</v>
+      </c>
+      <c r="C265" t="s">
+        <v>69</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265">
+        <v>13.94</v>
+      </c>
+      <c r="H265" t="s">
+        <v>15</v>
+      </c>
+      <c r="I265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" t="s">
+        <v>182</v>
+      </c>
+      <c r="C266" t="s">
+        <v>183</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266">
+        <v>13.88</v>
+      </c>
+      <c r="H266" t="s">
+        <v>15</v>
+      </c>
+      <c r="I266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>382</v>
+      </c>
+      <c r="C267" t="s">
+        <v>383</v>
+      </c>
+      <c r="G267">
         <v>13.99</v>
-      </c>
-      <c r="H262" t="s">
-        <v>15</v>
-      </c>
-      <c r="I262" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
-        <v>301</v>
-      </c>
-      <c r="C263" t="s">
-        <v>160</v>
-      </c>
-      <c r="G263">
-        <v>8.16</v>
-      </c>
-      <c r="H263" t="s">
-        <v>15</v>
-      </c>
-      <c r="I263" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
-        <v>301</v>
-      </c>
-      <c r="C264" t="s">
-        <v>292</v>
-      </c>
-      <c r="G264">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="H264" t="s">
-        <v>15</v>
-      </c>
-      <c r="I264" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" t="s">
-        <v>375</v>
-      </c>
-      <c r="G265">
-        <v>11.78</v>
-      </c>
-      <c r="H265" t="s">
-        <v>15</v>
-      </c>
-      <c r="I265" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>376</v>
-      </c>
-      <c r="C266" t="s">
-        <v>335</v>
-      </c>
-      <c r="G266">
-        <v>12.51</v>
-      </c>
-      <c r="H266" t="s">
-        <v>15</v>
-      </c>
-      <c r="I266" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
-        <v>226</v>
-      </c>
-      <c r="C267" t="s">
-        <v>222</v>
-      </c>
-      <c r="G267">
-        <v>11.88</v>
       </c>
       <c r="H267" t="s">
         <v>15</v>
@@ -9685,117 +9534,189 @@
         <v>300</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>9</v>
+      </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="C268" t="s">
-        <v>377</v>
+        <v>103</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
       </c>
       <c r="G268">
-        <v>12.86</v>
+        <v>13.96</v>
       </c>
       <c r="H268" t="s">
         <v>15</v>
       </c>
       <c r="I268" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
       <c r="B269" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="C269" t="s">
-        <v>378</v>
+        <v>49</v>
+      </c>
+      <c r="D269" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>14</v>
       </c>
       <c r="G269">
+        <v>13.92</v>
+      </c>
+      <c r="H269" t="s">
+        <v>15</v>
+      </c>
+      <c r="I269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>231</v>
+      </c>
+      <c r="C270" t="s">
+        <v>231</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270">
+        <v>13.99</v>
+      </c>
+      <c r="H270" t="s">
+        <v>15</v>
+      </c>
+      <c r="I270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>162</v>
+      </c>
+      <c r="C271" t="s">
+        <v>163</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271">
+        <v>13.96</v>
+      </c>
+      <c r="H271" t="s">
+        <v>15</v>
+      </c>
+      <c r="I271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>91</v>
+      </c>
+      <c r="C272" t="s">
+        <v>92</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272">
+        <v>13.08</v>
+      </c>
+      <c r="H272" t="s">
+        <v>15</v>
+      </c>
+      <c r="I272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" s="5">
         <v>11.83</v>
       </c>
-      <c r="H269" t="s">
-        <v>15</v>
-      </c>
-      <c r="I269" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>301</v>
-      </c>
-      <c r="C270" t="s">
-        <v>258</v>
-      </c>
-      <c r="G270">
-        <v>10.68</v>
-      </c>
-      <c r="H270" t="s">
-        <v>15</v>
-      </c>
-      <c r="I270" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>257</v>
-      </c>
-      <c r="C271" t="s">
-        <v>258</v>
-      </c>
-      <c r="G271">
-        <v>8.59</v>
-      </c>
-      <c r="H271" t="s">
-        <v>15</v>
-      </c>
-      <c r="I271" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>365</v>
-      </c>
-      <c r="C272" t="s">
-        <v>256</v>
-      </c>
-      <c r="G272">
-        <v>7.05</v>
-      </c>
-      <c r="H272" t="s">
-        <v>15</v>
-      </c>
-      <c r="I272" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>379</v>
-      </c>
-      <c r="C273" t="s">
-        <v>256</v>
-      </c>
-      <c r="G273">
-        <v>11.48</v>
-      </c>
-      <c r="H273" t="s">
-        <v>15</v>
-      </c>
-      <c r="I273" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H273" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="C274" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="G274">
-        <v>8.35</v>
+        <v>12.71</v>
       </c>
       <c r="H274" t="s">
         <v>15</v>
@@ -9804,15 +9725,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="C275" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="G275">
-        <v>6.59</v>
+        <v>13.23</v>
       </c>
       <c r="H275" t="s">
         <v>15</v>
@@ -9821,32 +9742,44 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
       <c r="B276" t="s">
-        <v>380</v>
+        <v>273</v>
       </c>
       <c r="C276" t="s">
-        <v>260</v>
+        <v>274</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
       </c>
       <c r="G276">
-        <v>7.46</v>
+        <v>13.24</v>
       </c>
       <c r="H276" t="s">
         <v>15</v>
       </c>
       <c r="I276" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="C277" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G277">
-        <v>7.71</v>
+        <v>9.7550000000000008</v>
       </c>
       <c r="H277" t="s">
         <v>15</v>
@@ -9855,66 +9788,102 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
       <c r="B278" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="C278" t="s">
-        <v>383</v>
+        <v>274</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
       </c>
       <c r="G278">
-        <v>13.99</v>
+        <v>10.52</v>
       </c>
       <c r="H278" t="s">
         <v>15</v>
       </c>
       <c r="I278" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
       <c r="B279" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C279" t="s">
-        <v>384</v>
+        <v>189</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s">
+        <v>13</v>
+      </c>
+      <c r="F279" t="s">
+        <v>14</v>
       </c>
       <c r="G279">
-        <v>12.71</v>
+        <v>13.33</v>
       </c>
       <c r="H279" t="s">
         <v>15</v>
       </c>
       <c r="I279" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>9</v>
+      </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="C280" t="s">
-        <v>384</v>
+        <v>77</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
       </c>
       <c r="G280">
-        <v>13.23</v>
+        <v>13.92</v>
       </c>
       <c r="H280" t="s">
         <v>15</v>
       </c>
       <c r="I280" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="C281" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="G281">
-        <v>9.7550000000000008</v>
+        <v>12.45</v>
       </c>
       <c r="H281" t="s">
         <v>15</v>
@@ -9923,15 +9892,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="C282" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="G282">
-        <v>12.45</v>
+        <v>11.06</v>
       </c>
       <c r="H282" t="s">
         <v>15</v>
@@ -9940,15 +9909,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="C283" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="G283">
-        <v>11.06</v>
+        <v>13.62</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -9957,67 +9926,78 @@
         <v>300</v>
       </c>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
       <c r="B284" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="C284" t="s">
-        <v>387</v>
+        <v>240</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
       </c>
       <c r="G284">
-        <v>13.62</v>
+        <v>13.67</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
       </c>
       <c r="I284" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
       <c r="B285" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="C285" t="s">
-        <v>389</v>
+        <v>119</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s">
+        <v>14</v>
       </c>
       <c r="G285">
-        <v>11.37</v>
+        <v>13.41</v>
       </c>
       <c r="H285" t="s">
         <v>15</v>
       </c>
       <c r="I285" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
-        <v>256</v>
-      </c>
-      <c r="C286" t="s">
-        <v>389</v>
-      </c>
-      <c r="G286">
-        <v>11.35</v>
-      </c>
-      <c r="H286" t="s">
-        <v>15</v>
-      </c>
-      <c r="I286" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I285">
+    <sortCondition ref="C2:C285"/>
+    <sortCondition ref="B2:B285"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:D86"/>
     </sheetView>
   </sheetViews>
@@ -11211,7 +11191,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D60" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -11219,7 +11199,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'C:\Users\sandr\Dropbox\Light\Doctorate\Data_and_scripts\March_crazed_panic\Method-eval_update\[WEB_shrt_shrt_to_long_shrt.xlsx]Differences criteria'!#REF!</xm:f>
           </x14:formula1>
